--- a/过程性文件/data/第三问数据/分界值/分界值（风化后）.xlsx
+++ b/过程性文件/data/第三问数据/分界值/分界值（风化后）.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.217195017064194</v>
+        <v>33.40649775551282</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01777787116792529</v>
+        <v>0.2335677052386921</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.05335170813056714</v>
+        <v>0.08824361584030634</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.01139938404276001</v>
+        <v>0.006511330952774271</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.03307265439940404</v>
+        <v>0.02582769880361713</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02724113058392016</v>
+        <v>0.01067587623191274</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.002038242541051171</v>
+        <v>0.001658724629745038</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
